--- a/Python/py_first_principles/TEMPLATE.xlsx
+++ b/Python/py_first_principles/TEMPLATE.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="44">
   <si>
     <t>Vendor</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>ECMS-S2</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>ZZ</t>
   </si>
 </sst>
 </file>
@@ -466,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B21"/>
+      <selection activeCell="F22" sqref="F22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1087,6 +1096,46 @@
         <v>22</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
